--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Zeitliste" sheetId="1" r:id="rId1"/>
     <sheet name="Zeitliste Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>Interfaces verstehen und erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin Static - Probleme bei der Bildübertragung - Flush </t>
+  </si>
+  <si>
+    <t>Plugin Navi - Multiuserfähigkeit</t>
+  </si>
+  <si>
+    <t>Plugin Static, Plugin Navi</t>
+  </si>
+  <si>
+    <t>Plugin Navi</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -343,6 +355,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,11 +744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-505504240"/>
-        <c:axId val="-505502608"/>
+        <c:axId val="540843616"/>
+        <c:axId val="540846880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-505504240"/>
+        <c:axId val="540843616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-505502608"/>
+        <c:crossAx val="540846880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +780,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-505502608"/>
+        <c:axId val="540846880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-505504240"/>
+        <c:crossAx val="540843616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,13 +859,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41553.528099768519" refreshedVersion="5" recordCount="148">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41603.316603472224" refreshedVersion="5" recordCount="148">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:E152" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-10-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-10-07T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -940,11 +955,11 @@
     <s v="Plugin Temperatur"/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
+    <d v="2013-10-06T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <s v="Interfaces verstehen und erstellen"/>
   </r>
   <r>
     <m/>
@@ -1999,9 +2014,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2039,7 +2054,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2111,7 +2126,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2264,7 +2279,7 @@
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2462,32 +2477,72 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="23">
+        <v>41600</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="23">
+        <v>41601</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="23">
+        <v>41602</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="23">
+        <v>41603</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SWE1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitliste" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Wichtig! Evtl muss der Datenbereich angepasst werden</t>
   </si>
   <si>
-    <t>SUM of Dauer (h)</t>
-  </si>
-  <si>
     <t>Spaltenbeschriftungen</t>
   </si>
   <si>
@@ -85,22 +82,109 @@
     <t>Thread eingearbeitet</t>
   </si>
   <si>
-    <t>Plugin Temperatur</t>
-  </si>
-  <si>
-    <t>Interfaces verstehen und erstellen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plugin Static - Probleme bei der Bildübertragung - Flush </t>
   </si>
   <si>
-    <t>Plugin Navi - Multiuserfähigkeit</t>
-  </si>
-  <si>
     <t>Plugin Static, Plugin Navi</t>
   </si>
   <si>
-    <t>Plugin Navi</t>
+    <t>UnitTest</t>
+  </si>
+  <si>
+    <t>Plugin Navi - Tutorium: UnitTest und PluginManager umgebaut</t>
+  </si>
+  <si>
+    <t>PluginManager mit Reflection erstellen</t>
+  </si>
+  <si>
+    <t>PluginManager erstellen (Liste mit allen Plugins)</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur (mit Interface; nur Ausgabe zum testen des PluginManagers)</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - XML</t>
+  </si>
+  <si>
+    <t>Diskussion</t>
+  </si>
+  <si>
+    <t>Diskussion 1</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>Diskussion 2</t>
+  </si>
+  <si>
+    <t>Meilenstein 2</t>
+  </si>
+  <si>
+    <t>Ins Thema Reflection einlesen und erste Tests durchführen</t>
+  </si>
+  <si>
+    <t>Meilenstein 1 - Frage bezüglich POST</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - POST</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - GET fertig</t>
+  </si>
+  <si>
+    <t>Tutorium</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - DB erstellen und Testdaten einfügen - GET</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - DB umgebaut</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - auslesen des "Sensor" eingebaut</t>
+  </si>
+  <si>
+    <t>Plugin Temperatur - Sensor umgebaut (beim Programmstart)</t>
+  </si>
+  <si>
+    <t>Plugin Static - Übertragung per byte[] - Probleme im Server</t>
+  </si>
+  <si>
+    <t>Plugin Static - Überarbeitung vom gesamten Servercode</t>
+  </si>
+  <si>
+    <t>Plugin Static - Übertragung per byte[]; Mimetype Überprüfung eingebaut</t>
+  </si>
+  <si>
+    <t>Diskussion 3 - Problem beim Plugin Static erkannt</t>
+  </si>
+  <si>
+    <t>Plugin Static - Fehlersuche (ohne Erfolg)</t>
+  </si>
+  <si>
+    <t>Plugin Navi - Multiuserfähigkeit: Abfrage und blockieren</t>
+  </si>
+  <si>
+    <t>Ins Thema UnitTest einlesen und erste Versuche</t>
+  </si>
+  <si>
+    <t>UnitTests eingebaut</t>
+  </si>
+  <si>
+    <t>Ins Thema Interfaces einlesen und ersten Prototypen erstellt</t>
+  </si>
+  <si>
+    <t>Plugin Navi - Versuch XML zu entschlüsseln</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Planung, Modellierung</t>
+  </si>
+  <si>
+    <t>Summe von Dauer (h)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +222,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +232,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -351,13 +447,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,7 +529,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1737307936909491E-2"/>
+          <c:y val="0.12232259162049187"/>
+          <c:w val="0.73101125411532397"/>
+          <c:h val="0.77257971225819"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -470,7 +600,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUM of Dauer (h)</c:v>
+                  <c:v>Summe von Dauer (h)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,8 +735,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Preparation</c:v>
+                  <c:v>Diskussion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -659,10 +792,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recherche</c:v>
+                  <c:v>Meilenstein</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,7 +851,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,11 +877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="540843616"/>
-        <c:axId val="540846880"/>
+        <c:axId val="-72040656"/>
+        <c:axId val="-72043920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540843616"/>
+        <c:axId val="-72040656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540846880"/>
+        <c:crossAx val="-72043920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +913,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540846880"/>
+        <c:axId val="-72043920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540843616"/>
+        <c:crossAx val="-72040656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,28 +992,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41603.316603472224" refreshedVersion="5" recordCount="148">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41611.502424768521" refreshedVersion="5" recordCount="164">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:E152" sheet="Zeitliste"/>
+    <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-10-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-04T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
+        <s v="Daniel Hörmann"/>
         <s v="Benjamin Thorstensen"/>
-        <s v="Daniel Hörmann"/>
         <m/>
         <s v="Sebastian" u="1"/>
         <s v="Arthur" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tätigkeit" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="12">
         <s v="Preparation"/>
         <s v="Recherche"/>
+        <s v="Planung"/>
         <s v="Development"/>
+        <s v="Diskussion"/>
+        <s v="Meilenstein"/>
+        <s v="Tutorium"/>
         <m/>
         <s v="Deployment" u="1"/>
         <s v="Meeting" u="1"/>
@@ -889,7 +1026,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -904,7 +1041,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="148">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="164">
   <r>
     <d v="2013-09-26T00:00:00"/>
     <x v="0"/>
@@ -921,1023 +1058,1135 @@
   </r>
   <r>
     <d v="2013-09-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Verschiedene Skripten und Internettutorials zum Thema &quot;Client - Server&quot; durchgelesen"/>
+  </r>
+  <r>
+    <d v="2013-09-27T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="3"/>
+    <n v="1"/>
     <s v="Verschiedene Skripten und Internettutorials zum Thema &quot;Client - Server&quot; durchgelesen"/>
   </r>
   <r>
-    <d v="2013-09-27T00:00:00"/>
+    <d v="2013-09-30T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <s v="Planung, Modellierung"/>
+  </r>
+  <r>
+    <d v="2013-09-30T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2"/>
+    <s v="Planung, Modellierung"/>
+  </r>
+  <r>
+    <d v="2013-09-30T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="Erste Versuche mit Client - Server - Programmierung"/>
+  </r>
+  <r>
+    <d v="2013-10-01T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="Thread eingearbeitet"/>
+  </r>
+  <r>
+    <d v="2013-10-03T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 1"/>
+  </r>
+  <r>
+    <d v="2013-10-03T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 1"/>
+  </r>
+  <r>
+    <d v="2013-10-05T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
+    <n v="1"/>
+    <s v="Ins Thema Interfaces einlesen und ersten Prototypen erstellt"/>
+  </r>
+  <r>
+    <d v="2013-10-06T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="Plugin Temperatur (mit Interface; nur Ausgabe zum testen des PluginManagers)"/>
+  </r>
+  <r>
+    <d v="2013-10-08T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2"/>
-    <s v="Verschiedene Skripten und Internettutorials zum Thema &quot;Client - Server&quot; durchgelesen"/>
-  </r>
-  <r>
-    <d v="2013-09-27T00:00:00"/>
+    <s v="PluginManager erstellen (Liste mit allen Plugins)"/>
+  </r>
+  <r>
+    <d v="2013-10-11T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="Ins Thema Reflection einlesen und erste Tests durchführen"/>
+  </r>
+  <r>
+    <d v="2013-10-12T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2"/>
-    <s v="Erste Versuche mit Client - Server - Programmierung"/>
-  </r>
-  <r>
-    <d v="2013-10-01T00:00:00"/>
+    <s v="PluginManager mit Reflection erstellen"/>
+  </r>
+  <r>
+    <d v="2013-10-15T00:00:00"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="Plugin Temperatur - DB erstellen und Testdaten einfügen - GET"/>
+  </r>
+  <r>
+    <d v="2013-10-17T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
     <n v="2"/>
-    <s v="Thread eingearbeitet"/>
-  </r>
-  <r>
-    <d v="2013-10-05T00:00:00"/>
+    <s v="Meilenstein 1 - Frage bezüglich POST"/>
+  </r>
+  <r>
+    <d v="2013-10-17T00:00:00"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="5"/>
     <n v="2"/>
-    <s v="Plugin Temperatur"/>
-  </r>
-  <r>
-    <d v="2013-10-06T00:00:00"/>
+    <s v="Meilenstein 1 - Frage bezüglich POST"/>
+  </r>
+  <r>
+    <d v="2013-10-18T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <s v="Plugin Temperatur - GET fertig"/>
+  </r>
+  <r>
+    <d v="2013-10-18T00:00:00"/>
     <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <s v="Interfaces verstehen und erstellen"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="Plugin Temperatur - DB umgebaut"/>
+  </r>
+  <r>
+    <d v="2013-10-23T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="3"/>
+    <s v="Plugin Temperatur - auslesen des &quot;Sensor&quot; eingebaut"/>
+  </r>
+  <r>
+    <d v="2013-10-25T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="Plugin Temperatur - POST"/>
+  </r>
+  <r>
+    <d v="2013-10-27T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="Plugin Temperatur - POST"/>
+  </r>
+  <r>
+    <d v="2013-10-28T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="Plugin Temperatur - XML"/>
+  </r>
+  <r>
+    <d v="2013-10-29T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="Plugin Static - Übertragung per byte[] - Probleme im Server"/>
+  </r>
+  <r>
+    <d v="2013-10-30T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="5"/>
+    <s v="Plugin Static - Überarbeitung vom gesamten Servercode"/>
+  </r>
+  <r>
+    <d v="2013-10-31T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 2"/>
+  </r>
+  <r>
+    <d v="2013-10-31T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 2"/>
+  </r>
+  <r>
+    <d v="2013-11-08T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="Plugin Temperatur - Sensor umgebaut (beim Programmstart)"/>
+  </r>
+  <r>
+    <d v="2013-11-09T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="1"/>
+    <s v="Plugin Static - Übertragung per byte[]; Mimetype Überprüfung eingebaut"/>
+  </r>
+  <r>
+    <d v="2013-11-14T00:00:00"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 3 - Problem beim Plugin Static erkannt"/>
+  </r>
+  <r>
+    <d v="2013-11-14T00:00:00"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="Diskussion 3 - Problem beim Plugin Static erkannt"/>
+  </r>
+  <r>
+    <d v="2013-11-15T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="4"/>
+    <s v="Plugin Static - Fehlersuche (ohne Erfolg)"/>
+  </r>
+  <r>
+    <d v="2013-11-22T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="3"/>
+    <s v="Plugin Navi - Versuch XML zu entschlüsseln"/>
+  </r>
+  <r>
+    <d v="2013-11-23T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="3"/>
+    <s v="Plugin Static - Probleme bei der Bildübertragung - Flush "/>
+  </r>
+  <r>
+    <d v="2013-11-24T00:00:00"/>
+    <x v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="5"/>
+    <s v="Plugin Static, Plugin Navi"/>
+  </r>
+  <r>
+    <d v="2013-11-25T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="Plugin Navi - Multiuserfähigkeit: Abfrage und blockieren"/>
+  </r>
+  <r>
+    <d v="2013-11-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Ins Thema UnitTest einlesen und erste Versuche"/>
+  </r>
+  <r>
+    <d v="2013-11-27T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="UnitTest"/>
+  </r>
+  <r>
+    <d v="2013-11-28T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="2"/>
+    <s v="Plugin Navi - Tutorium: UnitTest und PluginManager umgebaut"/>
+  </r>
+  <r>
+    <d v="2013-11-28T00:00:00"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="3"/>
+    <n v="2"/>
+    <s v="UnitTests eingebaut"/>
+  </r>
+  <r>
+    <d v="2013-12-03T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <s v="Meilenstein 2"/>
+  </r>
+  <r>
+    <d v="2013-12-03T00:00:00"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0"/>
+    <s v="Meilenstein 2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
     <m/>
     <m/>
   </r>
@@ -1946,29 +2195,33 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Zeitliste Pivot" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="5">
-  <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Datum" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Ausführende/r" axis="axisCol" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="6">
         <item h="1" m="1" x="4"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item h="1" m="1" x="3"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Tätigkeit" axis="axisRow" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="9">
-        <item h="1" m="1" x="4"/>
+      <items count="13">
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item m="1" x="9"/>
+        <item x="5"/>
         <item x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="6"/>
-        <item h="1" x="3"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1978,15 +2231,27 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2007,7 +2272,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="SUM of Dauer (h)" fld="3" baseField="0"/>
+    <dataField name="Summe von Dauer (h)" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -2276,26 +2541,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.140625" style="3"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="3"/>
     <col min="5" max="5" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -2333,16 +2601,16 @@
         <v>41543</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2350,16 +2618,16 @@
         <v>41543</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2367,16 +2635,16 @@
         <v>41544</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,1131 +2652,1305 @@
         <v>41544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
-        <v>41544</v>
+        <v>41547</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
-        <v>41553</v>
+        <v>41548</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>41550</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>41550</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
-        <v>41600</v>
+        <v>41552</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
-        <v>41601</v>
+        <v>41553</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
-        <v>41602</v>
+        <v>41555</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
+        <v>41558</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>41559</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>41562</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>41564</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="31">
+        <v>2</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>41564</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>41565</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>41565</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>41570</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>41572</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>41574</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>41575</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>41576</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>41577</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>41578</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="27">
+        <v>2</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>41578</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="27">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>41586</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>41587</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>41592</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="27">
+        <v>2</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>41592</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="27">
+        <v>2</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>41593</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>41600</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>41601</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>41602</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
         <v>41603</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>41604</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>41605</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>41606</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <v>41606</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>41611</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="31">
+        <v>0</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>41611</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="31">
+        <v>0</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+    <row r="49" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
+    <row r="50" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
+    <row r="51" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="3"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="3"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="3"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="3"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="3"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="3"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="3"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="3"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="3"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="3"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="3"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="3"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="3"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="3"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="3"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="3"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="3"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="3"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="3"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="3"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="3"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="3"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="3"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="3"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="3"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="3"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="3"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="3"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="3"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="3"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="3"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="3"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="3"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="3"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="3"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="3"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="3"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="3"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="3"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="3"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="3"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="3"/>
       <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="E172" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3520,14 +3962,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D12"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="6" max="6" width="63.5703125" customWidth="1"/>
   </cols>
@@ -3539,80 +3985,136 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <v>23</v>
+      </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="14">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
       </c>
       <c r="C7" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20">
-        <v>3</v>
-      </c>
-      <c r="C8" s="21">
-        <v>10</v>
-      </c>
-      <c r="D8" s="22">
-        <v>13</v>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21">
+        <v>44</v>
+      </c>
+      <c r="D12" s="22">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitliste" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Summe von Dauer (h)</t>
+  </si>
+  <si>
+    <t>Error-Handling</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -739,7 +741,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,18 +879,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-72040656"/>
-        <c:axId val="-72043920"/>
+        <c:axId val="440202592"/>
+        <c:axId val="440193344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-72040656"/>
+        <c:axId val="440202592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -902,10 +903,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-72043920"/>
+        <c:crossAx val="440193344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +914,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-72043920"/>
+        <c:axId val="440193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,17 +937,16 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-72040656"/>
+        <c:crossAx val="440202592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -992,13 +992,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41611.502424768521" refreshedVersion="5" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41623.895816203702" refreshedVersion="5" recordCount="164">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-04T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-16T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -1358,11 +1358,11 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
+    <d v="2013-12-15T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <s v="Error-Handling"/>
   </r>
   <r>
     <m/>
@@ -2279,9 +2279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2319,7 +2319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2391,7 +2391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2543,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3332,82 +3332,94 @@
       <c r="C48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <v>41623</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="E64" s="1"/>
@@ -3964,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D12"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
         <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
@@ -4015,10 +4027,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4111,10 +4123,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="21">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="22">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Error-Handling</t>
+  </si>
+  <si>
+    <t>Plugin 4 - RssFeed</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,11 +882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440202592"/>
-        <c:axId val="440193344"/>
+        <c:axId val="-184977392"/>
+        <c:axId val="-184976848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440202592"/>
+        <c:axId val="-184977392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +909,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440193344"/>
+        <c:crossAx val="-184976848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +917,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440193344"/>
+        <c:axId val="-184976848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +943,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440202592"/>
+        <c:crossAx val="-184977392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,7 +995,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41623.895816203702" refreshedVersion="5" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41631.759327546293" refreshedVersion="5" recordCount="164">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
   </cacheSource>
@@ -1361,7 +1364,7 @@
     <d v="2013-12-15T00:00:00"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="2"/>
+    <n v="4"/>
     <s v="Error-Handling"/>
   </r>
   <r>
@@ -2544,7 +2547,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3355,9 +3358,21 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="23">
+        <v>41631</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
@@ -4027,10 +4042,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4123,10 +4138,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="21">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="22">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Plugin 4 - RssFeed</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,11 +885,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-184977392"/>
-        <c:axId val="-184976848"/>
+        <c:axId val="-1115648544"/>
+        <c:axId val="-1115645280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-184977392"/>
+        <c:axId val="-1115648544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +912,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-184976848"/>
+        <c:crossAx val="-1115645280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +920,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-184976848"/>
+        <c:axId val="-1115645280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +946,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-184977392"/>
+        <c:crossAx val="-1115648544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,13 +998,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41631.759327546293" refreshedVersion="5" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41633.846448958335" refreshedVersion="5" recordCount="164">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-16T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-24T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -1368,11 +1371,11 @@
     <s v="Error-Handling"/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
+    <d v="2013-12-23T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="Plugin 4 - RssFeed"/>
   </r>
   <r>
     <m/>
@@ -2547,7 +2550,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3375,9 +3378,21 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="23">
+        <v>41633</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
@@ -4042,10 +4057,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" s="14">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4138,10 +4153,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="21">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Unit Tests Nr. 23</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,11 +888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1115648544"/>
-        <c:axId val="-1115645280"/>
+        <c:axId val="-1629999824"/>
+        <c:axId val="-1629993296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1115648544"/>
+        <c:axId val="-1629999824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +915,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1115645280"/>
+        <c:crossAx val="-1629993296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,7 +923,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1115645280"/>
+        <c:axId val="-1629993296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1115648544"/>
+        <c:crossAx val="-1629999824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,13 +1001,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41633.846448958335" refreshedVersion="5" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41635.848448032404" refreshedVersion="5" recordCount="164">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-24T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-26T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -1378,11 +1381,11 @@
     <s v="Plugin 4 - RssFeed"/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
+    <d v="2013-12-25T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <s v="Dokumentation"/>
   </r>
   <r>
     <m/>
@@ -2550,7 +2553,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3395,11 +3398,24 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="A53" s="23">
+        <v>41634</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="1"/>
@@ -4057,10 +4073,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4153,10 +4169,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="21">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="24" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Recherche</t>
   </si>
   <si>
-    <t>Wichtig! Evtl muss der Datenbereich angepasst werden</t>
-  </si>
-  <si>
     <t>Spaltenbeschriftungen</t>
   </si>
   <si>
@@ -197,13 +194,19 @@
   </si>
   <si>
     <t>Unit Tests Nr. 23</t>
+  </si>
+  <si>
+    <t>Überprüfung aller Funktionen</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,6 +236,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -240,12 +256,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,117 +286,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFABABAB"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -388,14 +303,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -405,62 +319,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -474,29 +349,574 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="60">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -515,6 +935,10 @@
   <c:lang val="de-DE"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
+  <c:pivotSource>
+    <c:name>[Zeiterfassung.xlsx]Zeitliste Pivot!Zeitliste Pivot</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
       <c:tx>
@@ -523,11 +947,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
@@ -536,9 +956,60 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -560,163 +1031,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4684EE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Summe von Dauer (h)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$3:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Zeilenbeschriftungen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$4:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$5</c:f>
+              <c:f>'Zeitliste Pivot'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -725,54 +1040,43 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$5:$C$5</c:f>
+              <c:f>'Zeitliste Pivot'!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$6</c:f>
+              <c:f>'Zeitliste Pivot'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,24 +1085,24 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="666666"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$6:$C$6</c:f>
+              <c:f>'Zeitliste Pivot'!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -811,24 +1115,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Zeitliste Pivot'!$A$7</c:f>
+              <c:f>'Zeitliste Pivot'!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,24 +1130,69 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4942CC"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$1:$C$1</c:f>
+              <c:f>'Zeitliste Pivot'!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Zeitliste Pivot'!$B$7:$C$7</c:f>
+              <c:f>'Zeitliste Pivot'!$E$5:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -867,17 +1205,186 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preparation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zeitliste Pivot'!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recherche</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zeitliste Pivot'!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zeitliste Pivot'!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tutorium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zeitliste Pivot'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Benjamin Thorstensen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Daniel Hörmann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zeitliste Pivot'!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -888,34 +1395,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1629999824"/>
-        <c:axId val="-1629993296"/>
+        <c:axId val="-1924461008"/>
+        <c:axId val="-1924458288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1629999824"/>
+        <c:axId val="-1924461008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1629993296"/>
+        <c:crossAx val="-1924458288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +1417,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1629993296"/>
+        <c:axId val="-1924458288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,28 +1428,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1629999824"/>
+        <c:crossAx val="-1924461008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86128646040457058"/>
+          <c:y val="0.31857072095922934"/>
+          <c:w val="9.6962697844587609E-2"/>
+          <c:h val="0.4184043588911473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -967,6 +1456,16 @@
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -975,11 +1474,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7115175" cy="4114800"/>
+    <xdr:ext cx="9429750" cy="4391025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1001,13 +1500,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41635.848448032404" refreshedVersion="5" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Hö" refreshedDate="41647.853346875003" refreshedVersion="5" recordCount="163">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:E168" sheet="Zeitliste"/>
+    <worksheetSource ref="A4:E167" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2013-12-26T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-09-26T00:00:00" maxDate="2014-01-09T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
@@ -1027,15 +1526,15 @@
         <s v="Diskussion"/>
         <s v="Meilenstein"/>
         <s v="Tutorium"/>
+        <s v="Testing"/>
         <m/>
+        <s v="Meeting" u="1"/>
         <s v="Deployment" u="1"/>
-        <s v="Meeting" u="1"/>
-        <s v="Testing" u="1"/>
         <s v="Management" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1050,7 +1549,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="164">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="163">
   <r>
     <d v="2013-09-26T00:00:00"/>
     <x v="0"/>
@@ -1333,6 +1832,13 @@
   </r>
   <r>
     <d v="2013-11-28T00:00:00"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2"/>
+    <s v="Plugin Navi - Tutorium: UnitTest und PluginManager umgebaut"/>
+  </r>
+  <r>
+    <d v="2013-11-28T00:00:00"/>
     <x v="0"/>
     <x v="3"/>
     <n v="2"/>
@@ -1342,29 +1848,15 @@
     <d v="2013-12-03T00:00:00"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="0"/>
+    <n v="1"/>
     <s v="Meilenstein 2"/>
   </r>
   <r>
     <d v="2013-12-03T00:00:00"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="0"/>
+    <n v="1"/>
     <s v="Meilenstein 2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <d v="2013-12-15T00:00:00"/>
@@ -1375,7 +1867,7 @@
   </r>
   <r>
     <d v="2013-12-23T00:00:00"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="5"/>
     <s v="Plugin 4 - RssFeed"/>
@@ -1388,814 +1880,814 @@
     <s v="Dokumentation"/>
   </r>
   <r>
-    <m/>
-    <x v="2"/>
+    <d v="2013-12-26T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <s v="Unit Tests Nr. 23"/>
+  </r>
+  <r>
+    <d v="2014-01-08T00:00:00"/>
+    <x v="0"/>
     <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
+    <n v="2"/>
+    <s v="Überprüfung aller Funktionen"/>
+  </r>
+  <r>
+    <d v="2014-01-08T00:00:00"/>
+    <x v="1"/>
     <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="7"/>
+    <n v="2"/>
+    <s v="Überprüfung aller Funktionen"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
     <m/>
     <m/>
   </r>
@@ -2203,11 +2695,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Zeitliste Pivot" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="5">
-  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Zeitliste Pivot" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="5" chartFormat="1">
+  <location ref="A3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Datum" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Ausführende/r" axis="axisCol" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+    <pivotField name="Ausführende/r" axis="axisRow" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="6">
         <item h="1" m="1" x="4"/>
         <item x="1"/>
@@ -2217,9 +2709,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Tätigkeit" axis="axisRow" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+    <pivotField name="Tätigkeit" axis="axisCol" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items count="13">
-        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item x="3"/>
         <item x="4"/>
         <item m="1" x="11"/>
@@ -2228,9 +2720,9 @@
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="10"/>
+        <item x="7"/>
         <item x="6"/>
-        <item h="1" x="7"/>
+        <item h="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2238,9 +2730,23 @@
     <pivotField name="Anmerkung" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
+  </colFields>
+  <colItems count="9">
     <i>
       <x v="1"/>
     </i>
@@ -2260,21 +2766,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="1"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2283,14 +2778,198 @@
   <dataFields count="1">
     <dataField name="Summe von Dauer (h)" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <formats count="20">
+    <format dxfId="59">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark1" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2328,7 +3007,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2400,7 +3079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2550,875 +3229,910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="3"/>
+    <col min="1" max="1" width="17.140625" style="2"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="3"/>
+    <col min="4" max="4" width="17.140625" style="2"/>
     <col min="5" max="5" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="5">
         <v>41543</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>41543</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>41544</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>41543</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>41544</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="5">
         <v>41544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="5">
         <v>41547</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>41547</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>41547</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>41547</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="5">
         <v>41548</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>41550</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="27">
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>41550</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>41550</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="27">
-        <v>2</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="5">
         <v>41552</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="5">
         <v>41553</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="5">
         <v>41555</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="5">
         <v>41558</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="5">
         <v>41559</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="5">
         <v>41562</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>41564</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="31">
+      <c r="B21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="E21" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>41564</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="31">
+      <c r="B22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13">
         <v>2</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>33</v>
+      <c r="E22" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="5">
         <v>41565</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="5">
         <v>41565</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="A25" s="5">
         <v>41570</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="5">
         <v>41572</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="5">
         <v>41574</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="5">
         <v>41575</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="5">
         <v>41576</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="5">
         <v>41577</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>41578</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="27">
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>41578</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="27">
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>30</v>
+      <c r="E32" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="5">
         <v>41586</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="5">
         <v>41587</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>41592</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+    <row r="36" spans="1:5" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>41592</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="27">
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>41592</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="27">
-        <v>2</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>44</v>
+      <c r="E36" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="5">
         <v>41593</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+      <c r="A38" s="5">
         <v>41600</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="A39" s="5">
         <v>41601</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="5">
         <v>41602</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="5">
         <v>41603</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>46</v>
+      <c r="E41" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+      <c r="A42" s="5">
         <v>41604</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+      <c r="A43" s="5">
         <v>41605</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>41606</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>41606</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>41606</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>41611</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="31">
-        <v>0</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="B47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>41611</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="31">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="5">
+        <v>41623</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <v>41623</v>
+      <c r="A50" s="5">
+        <v>41631</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="3">
-        <v>4</v>
+      <c r="D50" s="2">
+        <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
-        <v>41631</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>41633</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="3">
-        <v>5</v>
+      <c r="D51" s="2">
+        <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
-        <v>41633</v>
+      <c r="A52" s="5">
+        <v>41634</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="3">
-        <v>2</v>
+      <c r="D52" s="2">
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
-        <v>41634</v>
+      <c r="A53" s="5">
+        <v>41647</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="A54" s="5">
+        <v>41647</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
@@ -4004,175 +4718,176 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="E172" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D12"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22">
+        <v>28</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22">
+        <v>2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22">
+        <v>34</v>
+      </c>
+      <c r="C6" s="22">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="22">
+        <v>62</v>
+      </c>
+      <c r="C7" s="22">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="D7" s="22">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="16">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="E7" s="22">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="G7" s="22">
+        <v>5</v>
+      </c>
+      <c r="H7" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="I7" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>4</v>
-      </c>
-      <c r="D10" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20">
-        <v>35</v>
-      </c>
-      <c r="C12" s="21">
-        <v>55</v>
-      </c>
-      <c r="D12" s="22">
-        <v>90</v>
+      <c r="J7" s="24">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
